--- a/tests/output/test.markers.xlsx
+++ b/tests/output/test.markers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="187">
   <si>
     <t>strongly up-regulated</t>
   </si>
@@ -36,541 +36,550 @@
     <t>CCR7</t>
   </si>
   <si>
+    <t>MALAT1</t>
+  </si>
+  <si>
+    <t>CD3D</t>
+  </si>
+  <si>
+    <t>EBPL</t>
+  </si>
+  <si>
+    <t>SNRPD2</t>
+  </si>
+  <si>
+    <t>SH3YL1</t>
+  </si>
+  <si>
+    <t>DPP8</t>
+  </si>
+  <si>
+    <t>THYN1</t>
+  </si>
+  <si>
+    <t>HDDC2</t>
+  </si>
+  <si>
+    <t>SCGB3A1</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>TMEM66</t>
+  </si>
+  <si>
+    <t>APBA2</t>
+  </si>
+  <si>
+    <t>WDR36</t>
+  </si>
+  <si>
+    <t>366.86</t>
+  </si>
+  <si>
+    <t>51.06</t>
+  </si>
+  <si>
+    <t>23.98</t>
+  </si>
+  <si>
+    <t>14.17</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>5.18</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>IL32</t>
+  </si>
+  <si>
+    <t>IL7R</t>
+  </si>
+  <si>
+    <t>ANXA1</t>
+  </si>
+  <si>
+    <t>AIF1</t>
+  </si>
+  <si>
+    <t>CD2</t>
+  </si>
+  <si>
+    <t>PTPRCAP</t>
+  </si>
+  <si>
+    <t>CFL1</t>
+  </si>
+  <si>
+    <t>AQP3</t>
+  </si>
+  <si>
+    <t>CTSW</t>
+  </si>
+  <si>
+    <t>SSR2</t>
+  </si>
+  <si>
+    <t>HLA-A</t>
+  </si>
+  <si>
+    <t>OPTN</t>
+  </si>
+  <si>
+    <t>MKL1</t>
+  </si>
+  <si>
+    <t>453.76</t>
+  </si>
+  <si>
+    <t>79.79</t>
+  </si>
+  <si>
+    <t>32.42</t>
+  </si>
+  <si>
+    <t>26.38</t>
+  </si>
+  <si>
+    <t>9.41</t>
+  </si>
+  <si>
+    <t>7.68</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>5.46</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>CLIC1</t>
+  </si>
+  <si>
+    <t>GAPDH</t>
+  </si>
+  <si>
+    <t>EMP3</t>
+  </si>
+  <si>
+    <t>IGJ</t>
+  </si>
+  <si>
+    <t>DOK2</t>
+  </si>
+  <si>
+    <t>H3F3B</t>
+  </si>
+  <si>
+    <t>15.33</t>
+  </si>
+  <si>
+    <t>14.87</t>
+  </si>
+  <si>
+    <t>6.96</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>IFITM1</t>
+  </si>
+  <si>
+    <t>SH3BP5</t>
+  </si>
+  <si>
+    <t>IER2</t>
+  </si>
+  <si>
+    <t>KLF6</t>
+  </si>
+  <si>
+    <t>RNF113A</t>
+  </si>
+  <si>
+    <t>GCHFR</t>
+  </si>
+  <si>
+    <t>14.38</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>S100A4</t>
+  </si>
+  <si>
     <t>CD8B</t>
   </si>
   <si>
-    <t>MALAT1</t>
-  </si>
-  <si>
-    <t>TRAT1</t>
-  </si>
-  <si>
-    <t>CD3E</t>
-  </si>
-  <si>
-    <t>EIF3F</t>
-  </si>
-  <si>
-    <t>TCEA3</t>
-  </si>
-  <si>
-    <t>100.87</t>
-  </si>
-  <si>
-    <t>61.92</t>
-  </si>
-  <si>
-    <t>46.59</t>
-  </si>
-  <si>
-    <t>11.23</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>IL32</t>
-  </si>
-  <si>
-    <t>IL7R</t>
-  </si>
-  <si>
-    <t>CD52</t>
-  </si>
-  <si>
-    <t>VIM</t>
-  </si>
-  <si>
-    <t>HLA-A</t>
-  </si>
-  <si>
-    <t>SERP1</t>
-  </si>
-  <si>
-    <t>TMSB10</t>
-  </si>
-  <si>
-    <t>MYL12B</t>
-  </si>
-  <si>
-    <t>CD2</t>
-  </si>
-  <si>
-    <t>S100A10</t>
-  </si>
-  <si>
-    <t>CD8A</t>
-  </si>
-  <si>
-    <t>EIF3K</t>
-  </si>
-  <si>
-    <t>PTMA</t>
-  </si>
-  <si>
-    <t>MTFP1</t>
-  </si>
-  <si>
-    <t>CFL1</t>
-  </si>
-  <si>
-    <t>RP11-143J12.2</t>
-  </si>
-  <si>
-    <t>RP11-18H21.1</t>
-  </si>
-  <si>
-    <t>TNFRSF25</t>
-  </si>
-  <si>
-    <t>PPP6C</t>
-  </si>
-  <si>
-    <t>457.99</t>
-  </si>
-  <si>
-    <t>75.01</t>
-  </si>
-  <si>
-    <t>27.13</t>
-  </si>
-  <si>
-    <t>17.46</t>
-  </si>
-  <si>
-    <t>14.85</t>
-  </si>
-  <si>
-    <t>13.57</t>
-  </si>
-  <si>
-    <t>10.54</t>
-  </si>
-  <si>
-    <t>10.36</t>
-  </si>
-  <si>
-    <t>9.46</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>8.54</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t>6.84</t>
-  </si>
-  <si>
-    <t>6.59</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>GAPDH</t>
-  </si>
-  <si>
-    <t>EMP3</t>
-  </si>
-  <si>
-    <t>OAZ1</t>
-  </si>
-  <si>
-    <t>TRAPPC1</t>
-  </si>
-  <si>
-    <t>PFN1</t>
-  </si>
-  <si>
-    <t>GABARAP</t>
-  </si>
-  <si>
-    <t>EIF3I</t>
-  </si>
-  <si>
-    <t>H3F3A</t>
-  </si>
-  <si>
-    <t>TPM4</t>
-  </si>
-  <si>
-    <t>CYBA</t>
-  </si>
-  <si>
-    <t>TPM1</t>
-  </si>
-  <si>
-    <t>27.02</t>
-  </si>
-  <si>
-    <t>24.02</t>
-  </si>
-  <si>
-    <t>10.75</t>
-  </si>
-  <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>1.55</t>
+    <t>CCL5</t>
+  </si>
+  <si>
+    <t>GZMK</t>
+  </si>
+  <si>
+    <t>S100A11</t>
+  </si>
+  <si>
+    <t>LINC00926</t>
+  </si>
+  <si>
+    <t>MYL6</t>
+  </si>
+  <si>
+    <t>SH3BGRL3</t>
+  </si>
+  <si>
+    <t>LGALS1</t>
+  </si>
+  <si>
+    <t>IFITM2</t>
+  </si>
+  <si>
+    <t>CDKN1C</t>
+  </si>
+  <si>
+    <t>ZFP36</t>
+  </si>
+  <si>
+    <t>DUSP1</t>
+  </si>
+  <si>
+    <t>ZNHIT1</t>
+  </si>
+  <si>
+    <t>MYADM</t>
+  </si>
+  <si>
+    <t>HLA-C</t>
+  </si>
+  <si>
+    <t>TIGIT</t>
+  </si>
+  <si>
+    <t>858.50</t>
+  </si>
+  <si>
+    <t>73.60</t>
+  </si>
+  <si>
+    <t>67.18</t>
+  </si>
+  <si>
+    <t>61.52</t>
+  </si>
+  <si>
+    <t>51.25</t>
+  </si>
+  <si>
+    <t>31.72</t>
+  </si>
+  <si>
+    <t>24.62</t>
+  </si>
+  <si>
+    <t>17.98</t>
+  </si>
+  <si>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>10.39</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>MARCKSL1</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>NKG7</t>
+  </si>
+  <si>
+    <t>B2M</t>
+  </si>
+  <si>
+    <t>2220.03</t>
+  </si>
+  <si>
+    <t>155.33</t>
+  </si>
+  <si>
+    <t>FCGR3A</t>
+  </si>
+  <si>
+    <t>LTB</t>
+  </si>
+  <si>
+    <t>FCER1G</t>
+  </si>
+  <si>
+    <t>LSP1</t>
+  </si>
+  <si>
+    <t>EEF1B2</t>
+  </si>
+  <si>
+    <t>SMIM20</t>
+  </si>
+  <si>
+    <t>122.79</t>
+  </si>
+  <si>
+    <t>33.67</t>
+  </si>
+  <si>
+    <t>14.48</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>CD79A</t>
+  </si>
+  <si>
+    <t>PCBP2</t>
+  </si>
+  <si>
+    <t>UBXN1</t>
+  </si>
+  <si>
+    <t>TCL1A</t>
+  </si>
+  <si>
+    <t>1325.45</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>LYZ</t>
+  </si>
+  <si>
+    <t>LGALS2</t>
+  </si>
+  <si>
+    <t>FCN1</t>
+  </si>
+  <si>
+    <t>CST3</t>
+  </si>
+  <si>
+    <t>ARPC3</t>
+  </si>
+  <si>
+    <t>S100A6</t>
+  </si>
+  <si>
+    <t>HSD17B11</t>
+  </si>
+  <si>
+    <t>C10orf54</t>
+  </si>
+  <si>
+    <t>1895.66</t>
+  </si>
+  <si>
+    <t>66.63</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
+    <t>12.59</t>
+  </si>
+  <si>
+    <t>6.11</t>
   </si>
   <si>
     <t>1.53</t>
   </si>
   <si>
-    <t>KLF6</t>
-  </si>
-  <si>
-    <t>ARID5B</t>
-  </si>
-  <si>
-    <t>IFITM1</t>
-  </si>
-  <si>
-    <t>26.15</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>S100A4</t>
-  </si>
-  <si>
-    <t>CCL5</t>
-  </si>
-  <si>
-    <t>LINC00926</t>
-  </si>
-  <si>
-    <t>SH3BGRL3</t>
-  </si>
-  <si>
-    <t>S100A11</t>
-  </si>
-  <si>
-    <t>GZMK</t>
-  </si>
-  <si>
-    <t>ZFP36</t>
-  </si>
-  <si>
-    <t>TUBA1A</t>
-  </si>
-  <si>
-    <t>CDKN1C</t>
-  </si>
-  <si>
-    <t>ARPC1B</t>
-  </si>
-  <si>
-    <t>IFITM2</t>
-  </si>
-  <si>
-    <t>SEC61B</t>
-  </si>
-  <si>
-    <t>EIF4A1</t>
-  </si>
-  <si>
-    <t>HLA-C</t>
-  </si>
-  <si>
-    <t>EIF1</t>
-  </si>
-  <si>
-    <t>ANXA6</t>
-  </si>
-  <si>
-    <t>1044.15</t>
-  </si>
-  <si>
-    <t>102.69</t>
-  </si>
-  <si>
-    <t>45.02</t>
-  </si>
-  <si>
-    <t>33.14</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>17.79</t>
-  </si>
-  <si>
-    <t>15.75</t>
-  </si>
-  <si>
-    <t>12.19</t>
-  </si>
-  <si>
-    <t>10.41</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>4.78</t>
-  </si>
-  <si>
-    <t>4.16</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>2.20</t>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>LST1</t>
+  </si>
+  <si>
+    <t>HLA-DPB1</t>
+  </si>
+  <si>
+    <t>CD74</t>
+  </si>
+  <si>
+    <t>LY6E</t>
+  </si>
+  <si>
+    <t>HLA-DRA</t>
+  </si>
+  <si>
+    <t>HLA-DRB1</t>
+  </si>
+  <si>
+    <t>TIMP1</t>
+  </si>
+  <si>
+    <t>HLA-DRB5</t>
+  </si>
+  <si>
+    <t>OAS2</t>
+  </si>
+  <si>
+    <t>APOBEC3B</t>
+  </si>
+  <si>
+    <t>CIR1</t>
+  </si>
+  <si>
+    <t>H1F0</t>
+  </si>
+  <si>
+    <t>593.65</t>
+  </si>
+  <si>
+    <t>472.68</t>
+  </si>
+  <si>
+    <t>35.43</t>
+  </si>
+  <si>
+    <t>29.29</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>1.58</t>
   </si>
   <si>
     <t>1.56</t>
   </si>
   <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>NKG7</t>
-  </si>
-  <si>
-    <t>B2M</t>
-  </si>
-  <si>
-    <t>2364.70</t>
-  </si>
-  <si>
-    <t>160.43</t>
-  </si>
-  <si>
-    <t>FCGR3A</t>
-  </si>
-  <si>
-    <t>LTB</t>
-  </si>
-  <si>
-    <t>SH3YL1</t>
-  </si>
-  <si>
-    <t>TYROBP</t>
-  </si>
-  <si>
-    <t>FCER1G</t>
-  </si>
-  <si>
-    <t>ABI3</t>
-  </si>
-  <si>
-    <t>AURKAIP1</t>
-  </si>
-  <si>
-    <t>FLNA</t>
-  </si>
-  <si>
-    <t>RGS18</t>
-  </si>
-  <si>
-    <t>142.01</t>
-  </si>
-  <si>
-    <t>15.09</t>
-  </si>
-  <si>
-    <t>11.41</t>
-  </si>
-  <si>
-    <t>5.76</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>CD79A</t>
-  </si>
-  <si>
-    <t>JUNB</t>
-  </si>
-  <si>
-    <t>PCBP2</t>
-  </si>
-  <si>
-    <t>PPAPDC1B</t>
-  </si>
-  <si>
-    <t>UBXN1</t>
-  </si>
-  <si>
-    <t>1311.70</t>
-  </si>
-  <si>
-    <t>14.93</t>
-  </si>
-  <si>
-    <t>7.29</t>
-  </si>
-  <si>
-    <t>2.99</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>LYZ</t>
-  </si>
-  <si>
-    <t>CST3</t>
-  </si>
-  <si>
-    <t>MT-ND1</t>
-  </si>
-  <si>
-    <t>CAPG</t>
-  </si>
-  <si>
-    <t>1937.19</t>
-  </si>
-  <si>
-    <t>11.07</t>
-  </si>
-  <si>
-    <t>10.68</t>
-  </si>
-  <si>
-    <t>10.06</t>
-  </si>
-  <si>
-    <t>LST1</t>
-  </si>
-  <si>
-    <t>HLA-DPB1</t>
-  </si>
-  <si>
-    <t>CD74</t>
-  </si>
-  <si>
-    <t>IFITM3</t>
-  </si>
-  <si>
-    <t>HLA-DRA</t>
-  </si>
-  <si>
-    <t>SPI1</t>
-  </si>
-  <si>
-    <t>HLA-DRB5</t>
-  </si>
-  <si>
-    <t>CD19</t>
-  </si>
-  <si>
-    <t>PLXNC1</t>
-  </si>
-  <si>
-    <t>APOBEC3B</t>
-  </si>
-  <si>
-    <t>HLA-DRB1</t>
-  </si>
-  <si>
-    <t>565.55</t>
-  </si>
-  <si>
-    <t>332.02</t>
-  </si>
-  <si>
-    <t>307.28</t>
-  </si>
-  <si>
-    <t>28.99</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>1.51</t>
-  </si>
-  <si>
-    <t>SMAGP</t>
-  </si>
-  <si>
-    <t>1.58</t>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>NUDT16L1</t>
+  </si>
+  <si>
+    <t>2.45</t>
   </si>
   <si>
     <t>CD79B</t>
   </si>
   <si>
-    <t>27.21</t>
+    <t>34.51</t>
   </si>
   <si>
     <t>TMSB4X</t>
   </si>
   <si>
-    <t>NDUFA8</t>
-  </si>
-  <si>
-    <t>21.62</t>
-  </si>
-  <si>
-    <t>3.20</t>
+    <t>67.34</t>
   </si>
 </sst>
 </file>
@@ -928,7 +937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,19 +970,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -981,19 +990,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1001,19 +1010,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1021,19 +1030,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1041,19 +1050,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1061,19 +1070,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1081,139 +1090,105 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,81 +1228,81 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>101</v>
@@ -1335,13 +1310,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -1352,10 +1327,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>103</v>
@@ -1363,13 +1338,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>104</v>
@@ -1377,13 +1352,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>105</v>
@@ -1391,158 +1366,178 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="D20" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="D21" t="s">
         <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="D22" t="s">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="D23" t="s">
         <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="D24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1582,324 +1577,318 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
         <v>114</v>
       </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
       <c r="D16" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="1:5">
       <c r="D19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="D20" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="D21" t="s">
         <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="D22" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="D23" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="D24" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1939,102 +1928,102 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2042,271 +2031,269 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>179</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,228 +2333,220 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
       <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" t="s">
-        <v>181</v>
-      </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="G14" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="G15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2607,410 +2586,442 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>184</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
